--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/12.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/12.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2247924566762189</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.601135421572735</v>
+        <v>-1.600664789855466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1504062982856081</v>
+        <v>0.1513050632038708</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.244973138813033</v>
+        <v>-0.2450581358455832</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2308996812847429</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.53371152550226</v>
+        <v>-1.533707590454456</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09911845923714649</v>
+        <v>0.1003162877884563</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.248412370593075</v>
+        <v>-0.2483635760003146</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2406356948215166</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.489235254201227</v>
+        <v>-1.489831020438639</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09493629043185056</v>
+        <v>0.09613569300228168</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2581067543611659</v>
+        <v>-0.2583790596691509</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2443627268695306</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.558864351060645</v>
+        <v>-1.559109111034007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1214254582242198</v>
+        <v>0.1236542692999816</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2353590300201284</v>
+        <v>-0.2355148579131371</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2436462444527548</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.593204726230062</v>
+        <v>-1.592959179247139</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1064455182468012</v>
+        <v>0.1091292208486189</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2609714691619331</v>
+        <v>-0.261331919540711</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.24354900966662</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.479959559519402</v>
+        <v>-1.479510964069831</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1192753481045231</v>
+        <v>0.122849945528997</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2527708295399566</v>
+        <v>-0.2532052588174356</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2477827564365199</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.265393994961056</v>
+        <v>-1.263901037824502</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1560223985104089</v>
+        <v>0.1600817938242434</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2585002591414911</v>
+        <v>-0.2593880059259047</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2547362668468709</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.007346939186339</v>
+        <v>-1.005825649705602</v>
       </c>
       <c r="F9" t="n">
-        <v>0.177542387936832</v>
+        <v>0.1823919408495594</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.255515918887505</v>
+        <v>-0.2567483758594834</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2607538774743013</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5945769518260074</v>
+        <v>-0.5926204460582307</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1665510124127892</v>
+        <v>0.1715186167596142</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1640307795192664</v>
+        <v>-0.1653498075429164</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2607648168015678</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2209536070219845</v>
+        <v>-0.2189608988144178</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1365785403049816</v>
+        <v>0.1412297668084251</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1281793459934006</v>
+        <v>-0.1293756005255892</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2481427390087876</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2404842645594039</v>
+        <v>0.2425163232450031</v>
       </c>
       <c r="F12" t="n">
-        <v>0.101230792897932</v>
+        <v>0.1056962851450621</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03836738895110469</v>
+        <v>-0.03901431080995927</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2151658787791991</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7648907710884262</v>
+        <v>0.768177323013702</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00760948130176795</v>
+        <v>-0.004206451961515863</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05534341345465306</v>
+        <v>0.05493731652135748</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1575549741101539</v>
       </c>
       <c r="E14" t="n">
-        <v>1.309817764901846</v>
+        <v>1.313511987779538</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2318426713031426</v>
+        <v>-0.2281862248843611</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1590334970894572</v>
+        <v>0.1592192313457707</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.07692139429464281</v>
       </c>
       <c r="E15" t="n">
-        <v>1.871385288865656</v>
+        <v>1.875030717150588</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.443767031775946</v>
+        <v>-0.4397501349783866</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2925874455126992</v>
+        <v>0.2928770650310186</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.02080451587330059</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343650837982472</v>
+        <v>2.347192381005398</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6685117779917433</v>
+        <v>-0.6645814522458555</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4366385274558956</v>
+        <v>0.4372523949132028</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1254480712850611</v>
       </c>
       <c r="E17" t="n">
-        <v>2.799233358432621</v>
+        <v>2.802582871122749</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8818897451230678</v>
+        <v>-0.8785000949453468</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5553604936991212</v>
+        <v>0.5566999839713481</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2280259039522851</v>
       </c>
       <c r="E18" t="n">
-        <v>3.22314504014308</v>
+        <v>3.225109416006463</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.20972015163109</v>
+        <v>-1.206764930730848</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6768432894811083</v>
+        <v>0.6781875018106991</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3270385566441206</v>
       </c>
       <c r="E19" t="n">
-        <v>3.597678167999215</v>
+        <v>3.59923329889106</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.508293477721935</v>
+        <v>-1.506550251545095</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8377568382707989</v>
+        <v>0.8392065098815169</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4255403702043954</v>
       </c>
       <c r="E20" t="n">
-        <v>3.72345488794411</v>
+        <v>3.724370967072707</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.843685472088686</v>
+        <v>-1.842562409445638</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013595236368663</v>
+        <v>1.015578500461501</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5258530967048308</v>
       </c>
       <c r="E21" t="n">
-        <v>3.973961605118236</v>
+        <v>3.974034009997816</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079697834184314</v>
+        <v>-2.07972931456674</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181125961544301</v>
+        <v>1.183468101996797</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6270656837207336</v>
       </c>
       <c r="E22" t="n">
-        <v>4.17839678261189</v>
+        <v>4.179430913174585</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.37540329743615</v>
+        <v>-2.374978312273399</v>
       </c>
       <c r="G22" t="n">
-        <v>1.321185330995879</v>
+        <v>1.323891069865395</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7263092248886818</v>
       </c>
       <c r="E23" t="n">
-        <v>4.403464202747554</v>
+        <v>4.404380281876151</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507667337189486</v>
+        <v>-2.507033794493163</v>
       </c>
       <c r="G23" t="n">
-        <v>1.491820021878723</v>
+        <v>1.495075093421573</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8214268857049392</v>
       </c>
       <c r="E24" t="n">
-        <v>4.531493344055031</v>
+        <v>4.531921477256025</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.622915443232001</v>
+        <v>-2.621517714252286</v>
       </c>
       <c r="G24" t="n">
-        <v>1.595503809437042</v>
+        <v>1.599120905377791</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9096201490528072</v>
       </c>
       <c r="E25" t="n">
-        <v>4.672599436222274</v>
+        <v>4.672583696031061</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818815502040403</v>
+        <v>-2.817244630957345</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658689659023415</v>
+        <v>1.662311477021528</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9866004036985629</v>
       </c>
       <c r="E26" t="n">
-        <v>4.785643915494968</v>
+        <v>4.785711598317184</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908655791426882</v>
+        <v>-2.907219498978695</v>
       </c>
       <c r="G26" t="n">
-        <v>1.701841393233874</v>
+        <v>1.705283773052158</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.047262147019393</v>
       </c>
       <c r="E27" t="n">
-        <v>4.895393972746779</v>
+        <v>4.895456933511632</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.981304643970515</v>
+        <v>-2.979571648917963</v>
       </c>
       <c r="G27" t="n">
-        <v>1.752055751241608</v>
+        <v>1.755617756513112</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.0876904065913</v>
       </c>
       <c r="E28" t="n">
-        <v>4.894282715247142</v>
+        <v>4.895046114520972</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069947891815246</v>
+        <v>-3.068710712785903</v>
       </c>
       <c r="G28" t="n">
-        <v>1.792619798016648</v>
+        <v>1.796762616343912</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.106309489876199</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902450300467571</v>
+        <v>4.903918860307744</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083221595065174</v>
+        <v>-3.082529026651802</v>
       </c>
       <c r="G29" t="n">
-        <v>1.723918585429237</v>
+        <v>1.728127512559595</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.103546245032616</v>
       </c>
       <c r="E30" t="n">
-        <v>4.843852716619788</v>
+        <v>4.845724225355015</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072867697285258</v>
+        <v>-3.072286884229499</v>
       </c>
       <c r="G30" t="n">
-        <v>1.687925490182454</v>
+        <v>1.691788133106126</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.081595496258744</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718381356384426</v>
+        <v>4.720241846985803</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.060862653447098</v>
+        <v>-3.060876032609629</v>
       </c>
       <c r="G31" t="n">
-        <v>1.629146894135723</v>
+        <v>1.633033147346214</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.043691741023981</v>
       </c>
       <c r="E32" t="n">
-        <v>4.637297335369742</v>
+        <v>4.63980002577261</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.021691613594409</v>
+        <v>-3.022134699977055</v>
       </c>
       <c r="G32" t="n">
-        <v>1.591763940004831</v>
+        <v>1.595253540396755</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9937220958484424</v>
       </c>
       <c r="E33" t="n">
-        <v>4.558985162027669</v>
+        <v>4.56113999420473</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.952598470245794</v>
+        <v>-2.952977021844467</v>
       </c>
       <c r="G33" t="n">
-        <v>1.562378577029269</v>
+        <v>1.565713923547305</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9350866484968717</v>
       </c>
       <c r="E34" t="n">
-        <v>4.356029562508037</v>
+        <v>4.359095751756331</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.88029983695665</v>
+        <v>-2.880692554727415</v>
       </c>
       <c r="G34" t="n">
-        <v>1.512104406294925</v>
+        <v>1.515117078893094</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8702928078062701</v>
       </c>
       <c r="E35" t="n">
-        <v>4.131412311841065</v>
+        <v>4.134040923773637</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.848390534320082</v>
+        <v>-2.848922552783082</v>
       </c>
       <c r="G35" t="n">
-        <v>1.391331493136644</v>
+        <v>1.393982141336915</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8011834283460023</v>
       </c>
       <c r="E36" t="n">
-        <v>3.979947599836542</v>
+        <v>3.982733613681245</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.822997670845699</v>
+        <v>-2.823654036819281</v>
       </c>
       <c r="G36" t="n">
-        <v>1.36476362438821</v>
+        <v>1.367415846607602</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7296406375597139</v>
       </c>
       <c r="E37" t="n">
-        <v>3.783958608947787</v>
+        <v>3.786577776765632</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.759330171408207</v>
+        <v>-2.759809460230643</v>
       </c>
       <c r="G37" t="n">
-        <v>1.277846288509986</v>
+        <v>1.280361571065824</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.65693001367201</v>
       </c>
       <c r="E38" t="n">
-        <v>3.713820316902629</v>
+        <v>3.71633874749671</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.727957609292003</v>
+        <v>-2.728404630722452</v>
       </c>
       <c r="G38" t="n">
-        <v>1.23462529745819</v>
+        <v>1.236998918293112</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5831146316278082</v>
       </c>
       <c r="E39" t="n">
-        <v>3.503521918182129</v>
+        <v>3.505958499781903</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.744987709174915</v>
+        <v>-2.745854993710752</v>
       </c>
       <c r="G39" t="n">
-        <v>1.159264409968556</v>
+        <v>1.16185839348046</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5082763116592656</v>
       </c>
       <c r="E40" t="n">
-        <v>3.257411436413796</v>
+        <v>3.260206894373226</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.709859537435287</v>
+        <v>-2.711103799550675</v>
       </c>
       <c r="G40" t="n">
-        <v>1.095127852832917</v>
+        <v>1.097728132421306</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4326418896024314</v>
       </c>
       <c r="E41" t="n">
-        <v>3.085397904780693</v>
+        <v>3.088009202502931</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.648840325169384</v>
+        <v>-2.650594569480074</v>
       </c>
       <c r="G41" t="n">
-        <v>1.063167394574906</v>
+        <v>1.065695269283715</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.356211953433957</v>
       </c>
       <c r="E42" t="n">
-        <v>2.970949400451799</v>
+        <v>2.973612640805039</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.618087926586972</v>
+        <v>-2.619540746235932</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9791037553636007</v>
+        <v>0.9816269080150457</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.278513481989018</v>
       </c>
       <c r="E43" t="n">
-        <v>2.837463134850772</v>
+        <v>2.839849347838665</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.601138101679246</v>
+        <v>-2.602606661519419</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9270052964676693</v>
+        <v>0.9295473373485699</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1993287984263263</v>
       </c>
       <c r="E44" t="n">
-        <v>2.708110243462282</v>
+        <v>2.711026900894052</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.52953911988952</v>
+        <v>-2.530962033175176</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8631205823914382</v>
+        <v>0.8652360640904664</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1186140005810969</v>
       </c>
       <c r="E45" t="n">
-        <v>2.511710433582867</v>
+        <v>2.514307565133013</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.464141773437719</v>
+        <v>-2.465645748708122</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8329576539699531</v>
+        <v>0.8352273895428688</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.03692066402337497</v>
       </c>
       <c r="E46" t="n">
-        <v>2.385570115220951</v>
+        <v>2.388238077631556</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.424807822605975</v>
+        <v>-2.425719179677209</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7697230097908193</v>
+        <v>0.7718920081399717</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.04437679574890368</v>
       </c>
       <c r="E47" t="n">
-        <v>2.222345906361192</v>
+        <v>2.225257841735598</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.289838043983123</v>
+        <v>-2.290945366434958</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7134754364911392</v>
+        <v>0.715499625081132</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1231459698162177</v>
       </c>
       <c r="E48" t="n">
-        <v>2.134263796333205</v>
+        <v>2.136955369030629</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.249104790152543</v>
+        <v>-2.249617133376527</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6647595446868829</v>
+        <v>0.6667506788753284</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.197842232231127</v>
       </c>
       <c r="E49" t="n">
-        <v>1.980900817268394</v>
+        <v>1.983608130157031</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.197196000560729</v>
+        <v>-2.197698112660424</v>
       </c>
       <c r="G49" t="n">
-        <v>0.590520932830736</v>
+        <v>0.5921846710419508</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2676888595426511</v>
       </c>
       <c r="E50" t="n">
-        <v>1.887260845723095</v>
+        <v>1.890497029036489</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.149763721349893</v>
+        <v>-2.150266620459149</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5338719846551243</v>
+        <v>0.5355278527707326</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3321020404817155</v>
       </c>
       <c r="E51" t="n">
-        <v>1.763184066429204</v>
+        <v>1.766667370744643</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.099680793938787</v>
+        <v>-2.100201007258377</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4890990107497262</v>
+        <v>0.4903834103527075</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3904963910365858</v>
       </c>
       <c r="E52" t="n">
-        <v>1.651093442744018</v>
+        <v>1.655302369874376</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.981970134980997</v>
+        <v>-1.982452571841676</v>
       </c>
       <c r="G52" t="n">
-        <v>0.453397109040384</v>
+        <v>0.4548326144790102</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.4424443133751452</v>
       </c>
       <c r="E53" t="n">
-        <v>1.607778010544945</v>
+        <v>1.611620191220039</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.922320319350626</v>
+        <v>-1.922957010085192</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3822545927958355</v>
+        <v>0.3837987055538315</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4881836679025324</v>
       </c>
       <c r="E54" t="n">
-        <v>1.56413518236864</v>
+        <v>1.567969492948129</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.911782261333518</v>
+        <v>-1.912467746660844</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3480558793473355</v>
+        <v>0.3493874995239559</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.5280634103656646</v>
       </c>
       <c r="E55" t="n">
-        <v>1.508748597528312</v>
+        <v>1.512902433989424</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.847035771788375</v>
+        <v>-1.847432424606942</v>
       </c>
       <c r="G55" t="n">
-        <v>0.321188946965854</v>
+        <v>0.3223379809244035</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5627982412994467</v>
       </c>
       <c r="E56" t="n">
-        <v>1.451210328549165</v>
+        <v>1.454536230952473</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.785484541059472</v>
+        <v>-1.785744254214486</v>
       </c>
       <c r="G56" t="n">
-        <v>0.214054909493644</v>
+        <v>0.2152889404847438</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5933927001906836</v>
       </c>
       <c r="E57" t="n">
-        <v>1.460029557685813</v>
+        <v>1.464364406345875</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.782931482044722</v>
+        <v>-1.78354613651159</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2145900759948862</v>
+        <v>0.2160838201410006</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.6209955814477439</v>
       </c>
       <c r="E58" t="n">
-        <v>1.444656112928069</v>
+        <v>1.449266414934359</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.768267919910685</v>
+        <v>-1.768627583279902</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2099844960459604</v>
+        <v>0.211594717607051</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6465081272229993</v>
       </c>
       <c r="E59" t="n">
-        <v>1.432805322963796</v>
+        <v>1.437289703440382</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.731803405937072</v>
+        <v>-1.732458984901094</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1361110566259552</v>
+        <v>0.1378802541182972</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6704971879942596</v>
       </c>
       <c r="E60" t="n">
-        <v>1.46559214126049</v>
+        <v>1.469605890019806</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.764053483713402</v>
+        <v>-1.764694896505332</v>
       </c>
       <c r="G60" t="n">
-        <v>0.115825098190632</v>
+        <v>0.1176446642948556</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6935536695471641</v>
       </c>
       <c r="E61" t="n">
-        <v>1.462878532295367</v>
+        <v>1.467090607463968</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.782450619203165</v>
+        <v>-1.783021201134636</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1280630968587448</v>
+        <v>0.1298527565996637</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7158019682081378</v>
       </c>
       <c r="E62" t="n">
-        <v>1.473081324239638</v>
+        <v>1.477631813519318</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.826029699605056</v>
+        <v>-1.826842680481208</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04065309299555374</v>
+        <v>0.04264107914575651</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.737442523485359</v>
       </c>
       <c r="E63" t="n">
-        <v>1.459181161379432</v>
+        <v>1.46406849075107</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.786855511714125</v>
+        <v>-1.788181622823821</v>
       </c>
       <c r="G63" t="n">
-        <v>0.006574005000272548</v>
+        <v>0.008363664741191431</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7583397489816219</v>
       </c>
       <c r="E64" t="n">
-        <v>1.460369545816014</v>
+        <v>1.465463071692543</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.814387467174356</v>
+        <v>-1.815664783691291</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0235196665798753</v>
+        <v>-0.02198657195572843</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.778277150825377</v>
       </c>
       <c r="E65" t="n">
-        <v>1.469914397767581</v>
+        <v>1.475442352921589</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.839844865432712</v>
+        <v>-1.841139496159982</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02686130917439666</v>
+        <v>-0.02504646512753697</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7964753962898405</v>
       </c>
       <c r="E66" t="n">
-        <v>1.433401876210769</v>
+        <v>1.439222598921339</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.84511782948907</v>
+        <v>-1.846620230740351</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03535314233381387</v>
+        <v>-0.03328960326578867</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8120328313502938</v>
       </c>
       <c r="E67" t="n">
-        <v>1.398732531045</v>
+        <v>1.404595752271845</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.856961536367297</v>
+        <v>-1.858579628023994</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05434053499406407</v>
+        <v>-0.05239504736013642</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.823585356783424</v>
       </c>
       <c r="E68" t="n">
-        <v>1.348653538681698</v>
+        <v>1.354425466799507</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.886958405771485</v>
+        <v>-1.888614273887093</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06133704998824563</v>
+        <v>-0.05984015780388868</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8299024135060508</v>
       </c>
       <c r="E69" t="n">
-        <v>1.24520113193421</v>
+        <v>1.250870748809135</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.908419369480859</v>
+        <v>-1.910063432453057</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08376839648590173</v>
+        <v>-0.08202280928037926</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8303535522248714</v>
       </c>
       <c r="E70" t="n">
-        <v>1.261783423377113</v>
+        <v>1.266932039922887</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.913357067464379</v>
+        <v>-1.915756659614802</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05275707175803557</v>
+        <v>-0.05090917330962857</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8243869367288056</v>
       </c>
       <c r="E71" t="n">
-        <v>1.25474913192402</v>
+        <v>1.259641183353022</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.948045300859603</v>
+        <v>-1.950211938180074</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07224185446061679</v>
+        <v>-0.07082208921320357</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.811566719224539</v>
       </c>
       <c r="E72" t="n">
-        <v>1.238738209422149</v>
+        <v>1.24298648703054</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.977281132018643</v>
+        <v>-1.97983183000471</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.107205541202069</v>
+        <v>-0.1057306852854102</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.791822632726048</v>
       </c>
       <c r="E73" t="n">
-        <v>1.243861641661983</v>
+        <v>1.247522810138128</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.977008826710657</v>
+        <v>-1.979666557996974</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09456301961978185</v>
+        <v>-0.09311019997082132</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7662236546334062</v>
       </c>
       <c r="E74" t="n">
-        <v>1.239166342623143</v>
+        <v>1.241527371305094</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.985057573487429</v>
+        <v>-1.987822338073993</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07559608920810856</v>
+        <v>-0.0741102151576007</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7354938871929083</v>
       </c>
       <c r="E75" t="n">
-        <v>1.18406465524377</v>
+        <v>1.185874777233266</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.017758607742011</v>
+        <v>-2.020586333093428</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04759901109753322</v>
+        <v>-0.04626266886354894</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.700380337652679</v>
       </c>
       <c r="E76" t="n">
-        <v>1.220372554314813</v>
+        <v>1.220799113496685</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.021231680933161</v>
+        <v>-2.024065702361063</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0276420226585618</v>
+        <v>-0.02654493133101522</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6615619972825209</v>
       </c>
       <c r="E77" t="n">
-        <v>1.156478396123854</v>
+        <v>1.155123165660414</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.018544830293101</v>
+        <v>-2.02171411779384</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02928844665944232</v>
+        <v>-0.02804024949625088</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6200465765171183</v>
       </c>
       <c r="E78" t="n">
-        <v>1.176983143217038</v>
+        <v>1.174612670420359</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.029163950294956</v>
+        <v>-2.032382032388455</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02385965471007625</v>
+        <v>-0.02302227653754428</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5765918766484353</v>
       </c>
       <c r="E79" t="n">
-        <v>1.164077760441494</v>
+        <v>1.16032215081807</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.005724444550106</v>
+        <v>-2.009459591924953</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04551028772356721</v>
+        <v>-0.04451393361978388</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5307091777963269</v>
       </c>
       <c r="E80" t="n">
-        <v>1.144105031811309</v>
+        <v>1.139360938179709</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.968169135325433</v>
+        <v>-1.971049590317413</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02899410508375909</v>
+        <v>-0.02835033126314711</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4808839474929634</v>
       </c>
       <c r="E81" t="n">
-        <v>1.169327114211032</v>
+        <v>1.164183219722621</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.921560855124598</v>
+        <v>-1.924360248131831</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008942675497509631</v>
+        <v>-0.008640463826219901</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4257771883187285</v>
       </c>
       <c r="E82" t="n">
-        <v>1.228766798288709</v>
+        <v>1.22266904821279</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.949627977086071</v>
+        <v>-1.952242422846552</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01886237228026702</v>
+        <v>0.01899616390557757</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3652913128848526</v>
       </c>
       <c r="E83" t="n">
-        <v>1.315954865455797</v>
+        <v>1.309685547295656</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.845440503408936</v>
+        <v>-1.847331687383179</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01142670595124257</v>
+        <v>0.01164234657086076</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3007114331426693</v>
       </c>
       <c r="E84" t="n">
-        <v>1.310895967999937</v>
+        <v>1.30440156510545</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.784849424344027</v>
+        <v>-1.786127527870523</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02197893014044238</v>
+        <v>0.02217725654972627</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2349466718086476</v>
       </c>
       <c r="E85" t="n">
-        <v>1.419796054926246</v>
+        <v>1.413813208246182</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.756964888600625</v>
+        <v>-1.757744028065668</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01600710159422757</v>
+        <v>0.01598349130740806</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1707802731801441</v>
       </c>
       <c r="E86" t="n">
-        <v>1.664334091592399</v>
+        <v>1.659198067199595</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.652982037409259</v>
+        <v>-1.652919076644406</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03207626280358629</v>
+        <v>0.03186219620308939</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1113563870243261</v>
       </c>
       <c r="E87" t="n">
-        <v>1.599037482364362</v>
+        <v>1.5946066185379</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.53328811435863</v>
+        <v>-1.5328166956318</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05297766271533812</v>
+        <v>0.05270220936911051</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.05975035707064118</v>
       </c>
       <c r="E88" t="n">
-        <v>1.745917076668535</v>
+        <v>1.742506177232677</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.333788273819813</v>
+        <v>-1.332992607153996</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08965073422252284</v>
+        <v>0.08940518723959995</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01916784428421442</v>
       </c>
       <c r="E89" t="n">
-        <v>1.912714308933648</v>
+        <v>1.910532718431525</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159122519967319</v>
+        <v>-1.158001031343392</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1133365739598556</v>
+        <v>0.1131508397035421</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.007663829892807338</v>
       </c>
       <c r="E90" t="n">
-        <v>1.933625152960128</v>
+        <v>1.932243164171626</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9192427928906545</v>
+        <v>-0.9176317843200033</v>
       </c>
       <c r="G90" t="n">
-        <v>0.14211908761196</v>
+        <v>0.141988444024892</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01855666965953158</v>
       </c>
       <c r="E91" t="n">
-        <v>1.971922612200495</v>
+        <v>1.97091209192462</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6678727262284953</v>
+        <v>-0.6652205040091036</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09536284961372304</v>
+        <v>0.09531562904008402</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01246535856037695</v>
       </c>
       <c r="E92" t="n">
-        <v>1.987086712415105</v>
+        <v>1.986957642847159</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4628441435261103</v>
+        <v>-0.4597653621248461</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1065714397765052</v>
+        <v>0.106517923126381</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.009239971660237468</v>
       </c>
       <c r="E93" t="n">
-        <v>1.96052986180052</v>
+        <v>1.960410236347301</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.242240641618455</v>
+        <v>-0.2392862077277736</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09193463596753015</v>
+        <v>0.09162455420063391</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04276867101893816</v>
       </c>
       <c r="E94" t="n">
-        <v>1.848146470558772</v>
+        <v>1.847837962810998</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05928295503494823</v>
+        <v>-0.05616797119389417</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0666590369176837</v>
+        <v>0.06638515759057738</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08194152779713738</v>
       </c>
       <c r="E95" t="n">
-        <v>1.796605214431781</v>
+        <v>1.796904278064829</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07190524264897889</v>
+        <v>0.07519809065073993</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05410938246355332</v>
+        <v>0.05389846390129903</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1193298113214522</v>
       </c>
       <c r="E96" t="n">
-        <v>1.668730326998192</v>
+        <v>1.668912913216263</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1453584189635968</v>
+        <v>0.1482262818026066</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005292525155213337</v>
+        <v>-0.005531776061651041</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1476967478400092</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503115183093177</v>
+        <v>1.503785715238851</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1497924308283008</v>
+        <v>0.1524540971624203</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02044088517861116</v>
+        <v>-0.02082966790157243</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1671041517142528</v>
       </c>
       <c r="E98" t="n">
-        <v>1.389678773059279</v>
+        <v>1.390286344440101</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1779138564494589</v>
+        <v>0.1803315498197768</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05842354059471806</v>
+        <v>-0.05916647761997198</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1821299663026461</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250195494606097</v>
+        <v>1.250922691440138</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1810650427303029</v>
+        <v>0.1833064459590351</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09804160187785636</v>
+        <v>-0.09870583794704525</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2022224308296589</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091244747660668</v>
+        <v>1.09194833420789</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2368640205804123</v>
+        <v>0.2388945052468902</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1451268098724451</v>
+        <v>-0.1457485474253589</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2275990146558984</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9097933973762462</v>
+        <v>0.9107031804283581</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2189847373815578</v>
+        <v>0.2210419803730978</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1707219348039156</v>
+        <v>-0.1715860713015097</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2612230453523571</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8497823443575362</v>
+        <v>0.8506275926256747</v>
       </c>
       <c r="F102" t="n">
-        <v>0.257209791742345</v>
+        <v>0.258942786794897</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2087156083538716</v>
+        <v>-0.2095482644690397</v>
       </c>
     </row>
   </sheetData>
